--- a/data/subset3/distances15.xlsx
+++ b/data/subset3/distances15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lis37\Documents\nitrate_and_water_in_csd\data\subset3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lis37\nitrate_and_water_in_csd\data\subset3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEE2A6E-A47F-400D-9E6C-6DEEC3222F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5C511C-BC8C-4225-A962-55F55FD84EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Distance</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>std</t>
   </si>
 </sst>
 </file>
@@ -425,20 +431,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D955"/>
+  <dimension ref="A1:G955"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.3644428100000008</v>
       </c>
@@ -449,8 +461,16 @@
         <f t="array" ref="D2:D18">FREQUENCY(A2:A955,C2:C17)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>AVERAGE(A:A)</f>
+        <v>8.4873696981053506</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.STDEV.P(A:A)</f>
+        <v>3.019557791435008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.5100089140721193</v>
       </c>
@@ -461,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.5855484778220728</v>
       </c>
@@ -472,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.6429430547915516</v>
       </c>
@@ -483,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.6582707858720926</v>
       </c>
@@ -494,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.6662664976882908</v>
       </c>
@@ -505,7 +525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4.71496301376472</v>
       </c>
@@ -516,7 +536,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4.7222277058909778</v>
       </c>
@@ -527,7 +547,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.7510289433205859</v>
       </c>
@@ -538,7 +558,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.770842871076165</v>
       </c>
@@ -549,7 +569,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.7844199691926823</v>
       </c>
@@ -560,7 +580,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.7919414549326564</v>
       </c>
@@ -571,7 +591,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4.7980987604427767</v>
       </c>
@@ -582,7 +602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4.8073133542360633</v>
       </c>
@@ -593,7 +613,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4.8108592094541383</v>
       </c>
